--- a/inst/extdata/Power Capacity.xlsx
+++ b/inst/extdata/Power Capacity.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lauri\Documents\RPackages\china_co2\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lauri\Documents\RPackages\china_co2\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C7A5F20-8486-48F8-B293-69F0B64B3ABD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EBBB0C4-37CD-4EF7-A368-CC8C467DF0B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -232,6 +232,7 @@
       <sz val="11"/>
       <color indexed="10"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
@@ -612,12 +613,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
       <selection activeCell="A168" sqref="A168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
+    <col min="6" max="6" width="9.26953125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.26953125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.26953125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.26953125" bestFit="1" customWidth="1"/>

--- a/inst/extdata/Power Capacity.xlsx
+++ b/inst/extdata/Power Capacity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lauri\Documents\RPackages\china_co2\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EBBB0C4-37CD-4EF7-A368-CC8C467DF0B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A61FEC94-C334-4874-9598-48F366BAB477}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -182,19 +182,7 @@
     <t>Update</t>
   </si>
   <si>
-    <t>2008-12:2023-08</t>
-  </si>
-  <si>
-    <t>2010-09:2023-08</t>
-  </si>
-  <si>
-    <t>2009-12:2023-08</t>
-  </si>
-  <si>
     <t>2017-12:2023-08</t>
-  </si>
-  <si>
-    <t>2012-12:2023-08</t>
   </si>
   <si>
     <t>2020-06:2023-08</t>
@@ -206,10 +194,22 @@
     <t>Wind</t>
   </si>
   <si>
-    <t>2023-09-20</t>
+    <t>2023-09-27</t>
   </si>
   <si>
-    <t>2023-09-27</t>
+    <t>2008-12:2023-09</t>
+  </si>
+  <si>
+    <t>2010-09:2023-09</t>
+  </si>
+  <si>
+    <t>2009-12:2023-09</t>
+  </si>
+  <si>
+    <t>2012-12:2023-09</t>
+  </si>
+  <si>
+    <t>2023-10-24</t>
   </si>
 </sst>
 </file>
@@ -611,7 +611,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q168"/>
+  <dimension ref="A1:Q169"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
       <selection activeCell="A168" sqref="A168"/>
@@ -851,52 +851,52 @@
         <v>38</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="H6" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="I6" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="N6" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="O6" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="P6" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q6" s="4" t="s">
         <v>43</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="L6" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="M6" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="N6" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="O6" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="P6" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q6" s="4" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -904,52 +904,52 @@
         <v>39</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="O7" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="P7" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="Q7" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -957,52 +957,52 @@
         <v>40</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G8" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="I8" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="J8" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="I8" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>49</v>
-      </c>
       <c r="K8" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="O8" s="5" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="P8" s="5" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="Q8" s="5" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -9483,6 +9483,59 @@
       </c>
       <c r="Q168" s="3">
         <v>50541</v>
+      </c>
+    </row>
+    <row r="169" spans="1:17">
+      <c r="A169" s="2">
+        <v>45199</v>
+      </c>
+      <c r="B169" s="3">
+        <v>788</v>
+      </c>
+      <c r="C169" s="3">
+        <v>3944</v>
+      </c>
+      <c r="D169" s="3">
+        <v>119</v>
+      </c>
+      <c r="E169" s="3">
+        <v>3348</v>
+      </c>
+      <c r="F169" s="3">
+        <v>12894</v>
+      </c>
+      <c r="G169" s="3">
+        <v>0</v>
+      </c>
+      <c r="H169" s="3">
+        <v>0</v>
+      </c>
+      <c r="I169" s="3">
+        <v>279124</v>
+      </c>
+      <c r="J169" s="3">
+        <v>41949</v>
+      </c>
+      <c r="K169" s="3">
+        <v>137262</v>
+      </c>
+      <c r="L169" s="3">
+        <v>5676</v>
+      </c>
+      <c r="M169" s="3">
+        <v>40021</v>
+      </c>
+      <c r="N169" s="3">
+        <v>0</v>
+      </c>
+      <c r="O169" s="3">
+        <v>0</v>
+      </c>
+      <c r="P169" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q169" s="3">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/Power Capacity.xlsx
+++ b/inst/extdata/Power Capacity.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lauri\Documents\RPackages\china_co2\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A61FEC94-C334-4874-9598-48F366BAB477}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9326D59A-7F2A-44E1-899F-3F8B50BDF779}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -182,19 +182,7 @@
     <t>Update</t>
   </si>
   <si>
-    <t>2017-12:2023-08</t>
-  </si>
-  <si>
-    <t>2020-06:2023-08</t>
-  </si>
-  <si>
-    <t>2018-02:2023-08</t>
-  </si>
-  <si>
     <t>Wind</t>
-  </si>
-  <si>
-    <t>2023-09-27</t>
   </si>
   <si>
     <t>2008-12:2023-09</t>
@@ -210,6 +198,18 @@
   </si>
   <si>
     <t>2023-10-24</t>
+  </si>
+  <si>
+    <t>2017-12:2023-09</t>
+  </si>
+  <si>
+    <t>2020-06:2023-09</t>
+  </si>
+  <si>
+    <t>2018-02:2023-09</t>
+  </si>
+  <si>
+    <t>2023-11-03</t>
   </si>
 </sst>
 </file>
@@ -851,52 +851,52 @@
         <v>38</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D6" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F6" s="4" t="s">
+      <c r="H6" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="N6" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="G6" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="I6" s="4" t="s">
+      <c r="O6" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q6" s="4" t="s">
         <v>49</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="L6" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="M6" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="N6" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="O6" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="P6" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q6" s="4" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -904,52 +904,52 @@
         <v>39</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="O7" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="P7" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="Q7" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -957,52 +957,52 @@
         <v>40</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="H8" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="I8" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="N8" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="O8" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="P8" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="G8" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="I8" s="5" t="s">
+      <c r="Q8" s="5" t="s">
         <v>50</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="K8" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="L8" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="M8" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="N8" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="O8" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="P8" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q8" s="5" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -9505,10 +9505,10 @@
         <v>12894</v>
       </c>
       <c r="G169" s="3">
-        <v>0</v>
+        <v>2733</v>
       </c>
       <c r="H169" s="3">
-        <v>0</v>
+        <v>632</v>
       </c>
       <c r="I169" s="3">
         <v>279124</v>
@@ -9526,16 +9526,16 @@
         <v>40021</v>
       </c>
       <c r="N169" s="3">
-        <v>0</v>
+        <v>36980</v>
       </c>
       <c r="O169" s="3">
-        <v>0</v>
+        <v>115348</v>
       </c>
       <c r="P169" s="3">
-        <v>0</v>
+        <v>12169</v>
       </c>
       <c r="Q169" s="3">
-        <v>0</v>
+        <v>52108</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/Power Capacity.xlsx
+++ b/inst/extdata/Power Capacity.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\CREA-China\monthly snapshot\wind data templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2004241-A27B-4D20-8E2F-DEEC328D30D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54FEA4CE-7CCB-4A0F-9950-F544DE179CD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="14640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -185,31 +185,31 @@
     <t>Update</t>
   </si>
   <si>
-    <t>2008-12:2023-10</t>
+    <t>2008-12:2023-11</t>
   </si>
   <si>
-    <t>2010-09:2023-10</t>
+    <t>2010-09:2023-11</t>
   </si>
   <si>
-    <t>2009-12:2023-10</t>
+    <t>2009-12:2023-11</t>
   </si>
   <si>
-    <t>2017-12:2023-10</t>
+    <t>2017-12:2023-11</t>
   </si>
   <si>
-    <t>2012-12:2023-10</t>
+    <t>2012-12:2023-11</t>
   </si>
   <si>
-    <t>2020-06:2023-10</t>
+    <t>2020-06:2023-11</t>
   </si>
   <si>
-    <t>2018-02:2023-10</t>
+    <t>2018-02:2023-11</t>
   </si>
   <si>
-    <t>2023-11-23</t>
+    <t>2023-12-20</t>
   </si>
   <si>
-    <t>2023-11-24</t>
+    <t>2023-12-29</t>
   </si>
 </sst>
 </file>
@@ -314,9 +314,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -354,7 +354,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -460,7 +460,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -602,7 +602,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -610,7 +610,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q170"/>
+  <dimension ref="A1:Q171"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
@@ -9057,7 +9057,7 @@
         <v>11355</v>
       </c>
       <c r="Q160" s="2">
-        <v>37202</v>
+        <v>37202.341800000002</v>
       </c>
     </row>
     <row r="161" spans="1:17">
@@ -9588,6 +9588,59 @@
       </c>
       <c r="Q170" s="2">
         <v>53576</v>
+      </c>
+    </row>
+    <row r="171" spans="1:17">
+      <c r="A171" s="3">
+        <v>45260</v>
+      </c>
+      <c r="B171" s="2">
+        <v>939</v>
+      </c>
+      <c r="C171" s="2">
+        <v>4655</v>
+      </c>
+      <c r="D171" s="2">
+        <v>119</v>
+      </c>
+      <c r="E171" s="2">
+        <v>4139</v>
+      </c>
+      <c r="F171" s="2">
+        <v>16388</v>
+      </c>
+      <c r="G171" s="2">
+        <v>3236</v>
+      </c>
+      <c r="H171" s="2">
+        <v>694</v>
+      </c>
+      <c r="I171" s="2">
+        <v>285336</v>
+      </c>
+      <c r="J171" s="2">
+        <v>42134</v>
+      </c>
+      <c r="K171" s="2">
+        <v>137884</v>
+      </c>
+      <c r="L171" s="2">
+        <v>5676</v>
+      </c>
+      <c r="M171" s="2">
+        <v>41283</v>
+      </c>
+      <c r="N171" s="2">
+        <v>37070</v>
+      </c>
+      <c r="O171" s="2">
+        <v>115687</v>
+      </c>
+      <c r="P171" s="2">
+        <v>12283</v>
+      </c>
+      <c r="Q171" s="2">
+        <v>55762.160199999998</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/Power Capacity.xlsx
+++ b/inst/extdata/Power Capacity.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\CREA-China\monthly snapshot\wind data templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54FEA4CE-7CCB-4A0F-9950-F544DE179CD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1A26F08-0AA4-4A5D-9970-6FD3F41CBF6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="14640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2895" yWindow="2895" windowWidth="21600" windowHeight="10425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Newly-added Installed Capacity " sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="52">
   <si>
     <t>Name</t>
   </si>
@@ -185,31 +185,34 @@
     <t>Update</t>
   </si>
   <si>
-    <t>2008-12:2023-11</t>
-  </si>
-  <si>
-    <t>2010-09:2023-11</t>
-  </si>
-  <si>
-    <t>2009-12:2023-11</t>
-  </si>
-  <si>
-    <t>2017-12:2023-11</t>
-  </si>
-  <si>
-    <t>2012-12:2023-11</t>
-  </si>
-  <si>
     <t>2020-06:2023-11</t>
   </si>
   <si>
-    <t>2018-02:2023-11</t>
+    <t>2023-12-29</t>
   </si>
   <si>
-    <t>2023-12-20</t>
+    <t>2008-12:2023-12</t>
   </si>
   <si>
-    <t>2023-12-29</t>
+    <t>2010-09:2023-12</t>
+  </si>
+  <si>
+    <t>2009-12:2023-12</t>
+  </si>
+  <si>
+    <t>2017-12:2023-12</t>
+  </si>
+  <si>
+    <t>2012-12:2023-12</t>
+  </si>
+  <si>
+    <t>2018-02:2023-12</t>
+  </si>
+  <si>
+    <t>2024-02-05</t>
+  </si>
+  <si>
+    <t>2024-01-29</t>
   </si>
 </sst>
 </file>
@@ -610,9 +613,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q171"/>
+  <dimension ref="A1:Q172"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -850,52 +853,52 @@
         <v>38</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="N6" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="L6" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="M6" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="N6" s="4" t="s">
+      <c r="O6" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="O6" s="4" t="s">
-        <v>45</v>
-      </c>
       <c r="P6" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="Q6" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -956,19 +959,19 @@
         <v>41</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>50</v>
@@ -977,22 +980,22 @@
         <v>50</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="O8" s="5" t="s">
         <v>50</v>
@@ -9641,6 +9644,59 @@
       </c>
       <c r="Q171" s="2">
         <v>55762.160199999998</v>
+      </c>
+    </row>
+    <row r="172" spans="1:17">
+      <c r="A172" s="3">
+        <v>45291</v>
+      </c>
+      <c r="B172" s="2">
+        <v>1034</v>
+      </c>
+      <c r="C172" s="2">
+        <v>6567</v>
+      </c>
+      <c r="D172" s="2">
+        <v>139</v>
+      </c>
+      <c r="E172" s="2">
+        <v>7566</v>
+      </c>
+      <c r="F172" s="2">
+        <v>21602</v>
+      </c>
+      <c r="G172" s="2">
+        <v>4774</v>
+      </c>
+      <c r="H172" s="2">
+        <v>1012</v>
+      </c>
+      <c r="I172" s="2">
+        <v>291965</v>
+      </c>
+      <c r="J172" s="2">
+        <v>42154</v>
+      </c>
+      <c r="K172" s="2">
+        <v>139032</v>
+      </c>
+      <c r="L172" s="2">
+        <v>5691</v>
+      </c>
+      <c r="M172" s="2">
+        <v>44134</v>
+      </c>
+      <c r="N172" s="2">
+        <v>0</v>
+      </c>
+      <c r="O172" s="2">
+        <v>116493</v>
+      </c>
+      <c r="P172" s="2">
+        <v>12562</v>
+      </c>
+      <c r="Q172" s="2">
+        <v>60949</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/Power Capacity.xlsx
+++ b/inst/extdata/Power Capacity.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\CREA-China\monthly snapshot\wind data templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1A26F08-0AA4-4A5D-9970-6FD3F41CBF6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F18AF822-CA7B-405B-912A-B4E9A5B8F51E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2895" yWindow="2895" windowWidth="21600" windowHeight="10425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3375" yWindow="3375" windowWidth="14400" windowHeight="10425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Newly-added Installed Capacity " sheetId="1" r:id="rId1"/>
@@ -185,34 +185,34 @@
     <t>Update</t>
   </si>
   <si>
-    <t>2020-06:2023-11</t>
+    <t>2008-12:2024-02</t>
   </si>
   <si>
-    <t>2023-12-29</t>
+    <t>2010-09:2024-02</t>
   </si>
   <si>
-    <t>2008-12:2023-12</t>
+    <t>2009-12:2024-02</t>
   </si>
   <si>
-    <t>2010-09:2023-12</t>
+    <t>2017-12:2024-02</t>
   </si>
   <si>
-    <t>2009-12:2023-12</t>
+    <t>2012-12:2024-02</t>
   </si>
   <si>
-    <t>2017-12:2023-12</t>
+    <t>2020-06:2024-02</t>
   </si>
   <si>
-    <t>2012-12:2023-12</t>
+    <t>2018-02:2024-02</t>
   </si>
   <si>
-    <t>2018-02:2023-12</t>
+    <t>2024-03-26</t>
   </si>
   <si>
-    <t>2024-02-05</t>
+    <t>2024-04-03</t>
   </si>
   <si>
-    <t>2024-01-29</t>
+    <t>2024-04-02</t>
   </si>
 </sst>
 </file>
@@ -613,10 +613,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q172"/>
+  <dimension ref="A1:Q173"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12:H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -853,52 +853,52 @@
         <v>38</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D6" s="4" t="s">
+      <c r="G6" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F6" s="4" t="s">
+      <c r="H6" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I6" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="J6" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="N6" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="H6" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" s="4" t="s">
+      <c r="O6" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q6" s="4" t="s">
         <v>48</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="L6" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="M6" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="N6" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="O6" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="P6" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q6" s="4" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -959,19 +959,19 @@
         <v>41</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>50</v>
@@ -980,22 +980,22 @@
         <v>50</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K8" s="5" t="s">
         <v>51</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="O8" s="5" t="s">
         <v>50</v>
@@ -1004,7 +1004,7 @@
         <v>50</v>
       </c>
       <c r="Q8" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -9166,7 +9166,7 @@
         <v>0</v>
       </c>
       <c r="Q162" s="2">
-        <v>0</v>
+        <v>41304</v>
       </c>
     </row>
     <row r="163" spans="1:17">
@@ -9697,6 +9697,59 @@
       </c>
       <c r="Q172" s="2">
         <v>60949</v>
+      </c>
+    </row>
+    <row r="173" spans="1:17">
+      <c r="A173" s="3">
+        <v>45351</v>
+      </c>
+      <c r="B173" s="2">
+        <v>103</v>
+      </c>
+      <c r="C173" s="2">
+        <v>508</v>
+      </c>
+      <c r="D173" s="2">
+        <v>0</v>
+      </c>
+      <c r="E173" s="2">
+        <v>989</v>
+      </c>
+      <c r="F173" s="2">
+        <v>3672</v>
+      </c>
+      <c r="G173" s="2">
+        <v>302</v>
+      </c>
+      <c r="H173" s="2">
+        <v>74</v>
+      </c>
+      <c r="I173" s="2">
+        <v>297185</v>
+      </c>
+      <c r="J173" s="2">
+        <v>42246</v>
+      </c>
+      <c r="K173" s="2">
+        <v>139420</v>
+      </c>
+      <c r="L173" s="2">
+        <v>5691</v>
+      </c>
+      <c r="M173" s="2">
+        <v>45035</v>
+      </c>
+      <c r="N173" s="2">
+        <v>37057</v>
+      </c>
+      <c r="O173" s="2">
+        <v>116751</v>
+      </c>
+      <c r="P173" s="2">
+        <v>12625</v>
+      </c>
+      <c r="Q173" s="2">
+        <v>64788</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/Power Capacity.xlsx
+++ b/inst/extdata/Power Capacity.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\CREA-China\monthly snapshot\wind data templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F18AF822-CA7B-405B-912A-B4E9A5B8F51E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{456D1BA2-7216-4C9C-8AFF-0ADACA41D4FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3375" yWindow="3375" windowWidth="14400" windowHeight="10425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="14625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Newly-added Installed Capacity " sheetId="1" r:id="rId1"/>
@@ -185,34 +185,34 @@
     <t>Update</t>
   </si>
   <si>
-    <t>2008-12:2024-02</t>
+    <t>2008-12:2024-03</t>
   </si>
   <si>
-    <t>2010-09:2024-02</t>
+    <t>2010-09:2024-03</t>
   </si>
   <si>
-    <t>2009-12:2024-02</t>
+    <t>2009-12:2024-03</t>
   </si>
   <si>
-    <t>2017-12:2024-02</t>
+    <t>2017-12:2024-03</t>
   </si>
   <si>
-    <t>2012-12:2024-02</t>
+    <t>2012-12:2024-03</t>
   </si>
   <si>
-    <t>2020-06:2024-02</t>
+    <t>2020-06:2024-03</t>
   </si>
   <si>
-    <t>2018-02:2024-02</t>
+    <t>2018-02:2024-03</t>
   </si>
   <si>
-    <t>2024-03-26</t>
+    <t>2024-04-22</t>
   </si>
   <si>
-    <t>2024-04-03</t>
+    <t>2024-04-29</t>
   </si>
   <si>
-    <t>2024-04-02</t>
+    <t>2024-04-26</t>
   </si>
 </sst>
 </file>
@@ -613,7 +613,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q173"/>
+  <dimension ref="A1:Q174"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H12" sqref="H12:H13"/>
@@ -986,7 +986,7 @@
         <v>49</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L8" s="5" t="s">
         <v>49</v>
@@ -9219,7 +9219,7 @@
         <v>11660</v>
       </c>
       <c r="Q163" s="2">
-        <v>42589</v>
+        <v>42596</v>
       </c>
     </row>
     <row r="164" spans="1:17">
@@ -9750,6 +9750,59 @@
       </c>
       <c r="Q173" s="2">
         <v>64788</v>
+      </c>
+    </row>
+    <row r="174" spans="1:17">
+      <c r="A174" s="3">
+        <v>45382</v>
+      </c>
+      <c r="B174" s="2">
+        <v>181</v>
+      </c>
+      <c r="C174" s="2">
+        <v>639</v>
+      </c>
+      <c r="D174" s="2">
+        <v>0</v>
+      </c>
+      <c r="E174" s="2">
+        <v>1550</v>
+      </c>
+      <c r="F174" s="2">
+        <v>4574</v>
+      </c>
+      <c r="G174" s="2">
+        <v>299</v>
+      </c>
+      <c r="H174" s="2">
+        <v>141</v>
+      </c>
+      <c r="I174" s="2">
+        <v>299371</v>
+      </c>
+      <c r="J174" s="2">
+        <v>42340</v>
+      </c>
+      <c r="K174" s="2">
+        <v>139666</v>
+      </c>
+      <c r="L174" s="2">
+        <v>5691</v>
+      </c>
+      <c r="M174" s="2">
+        <v>45664</v>
+      </c>
+      <c r="N174" s="2">
+        <v>37086</v>
+      </c>
+      <c r="O174" s="2">
+        <v>116830</v>
+      </c>
+      <c r="P174" s="2">
+        <v>12709</v>
+      </c>
+      <c r="Q174" s="2">
+        <v>66005</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/Power Capacity.xlsx
+++ b/inst/extdata/Power Capacity.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\CREA-China\monthly snapshot\wind data templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{456D1BA2-7216-4C9C-8AFF-0ADACA41D4FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29B1145A-AFBA-471D-8E41-131534FBB719}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="14625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Newly-added Installed Capacity " sheetId="1" r:id="rId1"/>
@@ -185,19 +185,7 @@
     <t>Update</t>
   </si>
   <si>
-    <t>2008-12:2024-03</t>
-  </si>
-  <si>
-    <t>2010-09:2024-03</t>
-  </si>
-  <si>
-    <t>2009-12:2024-03</t>
-  </si>
-  <si>
     <t>2017-12:2024-03</t>
-  </si>
-  <si>
-    <t>2012-12:2024-03</t>
   </si>
   <si>
     <t>2020-06:2024-03</t>
@@ -206,13 +194,25 @@
     <t>2018-02:2024-03</t>
   </si>
   <si>
-    <t>2024-04-22</t>
-  </si>
-  <si>
     <t>2024-04-29</t>
   </si>
   <si>
     <t>2024-04-26</t>
+  </si>
+  <si>
+    <t>2008-12:2024-04</t>
+  </si>
+  <si>
+    <t>2010-09:2024-04</t>
+  </si>
+  <si>
+    <t>2009-12:2024-04</t>
+  </si>
+  <si>
+    <t>2012-12:2024-04</t>
+  </si>
+  <si>
+    <t>2024-05-27</t>
   </si>
 </sst>
 </file>
@@ -613,21 +613,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q174"/>
+  <dimension ref="A1:Q175"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12:H13"/>
+    <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="9.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
@@ -853,52 +853,52 @@
         <v>38</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G6" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="H6" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="I6" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="N6" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="O6" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="P6" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q6" s="4" t="s">
         <v>44</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="L6" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="M6" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="N6" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="O6" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="P6" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q6" s="4" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -959,52 +959,52 @@
         <v>41</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="O8" s="5" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="P8" s="5" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="Q8" s="5" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -9803,6 +9803,59 @@
       </c>
       <c r="Q174" s="2">
         <v>66005</v>
+      </c>
+    </row>
+    <row r="175" spans="1:17">
+      <c r="A175" s="3">
+        <v>45412</v>
+      </c>
+      <c r="B175" s="2">
+        <v>272</v>
+      </c>
+      <c r="C175" s="2">
+        <v>916</v>
+      </c>
+      <c r="D175" s="2">
+        <v>0</v>
+      </c>
+      <c r="E175" s="2">
+        <v>1684</v>
+      </c>
+      <c r="F175" s="2">
+        <v>6011</v>
+      </c>
+      <c r="G175" s="2">
+        <v>0</v>
+      </c>
+      <c r="H175" s="2">
+        <v>0</v>
+      </c>
+      <c r="I175" s="2">
+        <v>300963</v>
+      </c>
+      <c r="J175" s="2">
+        <v>42515</v>
+      </c>
+      <c r="K175" s="2">
+        <v>139802</v>
+      </c>
+      <c r="L175" s="2">
+        <v>5691</v>
+      </c>
+      <c r="M175" s="2">
+        <v>45803</v>
+      </c>
+      <c r="N175" s="2">
+        <v>0</v>
+      </c>
+      <c r="O175" s="2">
+        <v>0</v>
+      </c>
+      <c r="P175" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q175" s="2">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/Power Capacity.xlsx
+++ b/inst/extdata/Power Capacity.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\CREA-China\monthly snapshot\wind data templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29B1145A-AFBA-471D-8E41-131534FBB719}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{183CA25C-A56B-4FBA-BFB2-8DE7B3B6A1A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="14625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Newly-added Installed Capacity " sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="51">
   <si>
     <t>Name</t>
   </si>
@@ -185,21 +185,6 @@
     <t>Update</t>
   </si>
   <si>
-    <t>2017-12:2024-03</t>
-  </si>
-  <si>
-    <t>2020-06:2024-03</t>
-  </si>
-  <si>
-    <t>2018-02:2024-03</t>
-  </si>
-  <si>
-    <t>2024-04-29</t>
-  </si>
-  <si>
-    <t>2024-04-26</t>
-  </si>
-  <si>
     <t>2008-12:2024-04</t>
   </si>
   <si>
@@ -213,6 +198,18 @@
   </si>
   <si>
     <t>2024-05-27</t>
+  </si>
+  <si>
+    <t>2017-12:2024-04</t>
+  </si>
+  <si>
+    <t>2020-06:2024-04</t>
+  </si>
+  <si>
+    <t>2018-02:2024-04</t>
+  </si>
+  <si>
+    <t>2024-05-30</t>
   </si>
 </sst>
 </file>
@@ -615,19 +612,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="6" max="6" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
@@ -853,52 +850,52 @@
         <v>38</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="H6" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="I6" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="N6" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="O6" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="P6" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q6" s="4" t="s">
         <v>49</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="L6" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="M6" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="N6" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="O6" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="P6" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q6" s="4" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -959,52 +956,52 @@
         <v>41</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="O8" s="5" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="P8" s="5" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="Q8" s="5" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -9272,7 +9269,7 @@
         <v>11750</v>
       </c>
       <c r="Q164" s="2">
-        <v>44050</v>
+        <v>44057</v>
       </c>
     </row>
     <row r="165" spans="1:17">
@@ -9825,10 +9822,10 @@
         <v>6011</v>
       </c>
       <c r="G175" s="2">
-        <v>0</v>
+        <v>471</v>
       </c>
       <c r="H175" s="2">
-        <v>0</v>
+        <v>191</v>
       </c>
       <c r="I175" s="2">
         <v>300963</v>
@@ -9846,16 +9843,16 @@
         <v>45803</v>
       </c>
       <c r="N175" s="2">
-        <v>0</v>
+        <v>37231</v>
       </c>
       <c r="O175" s="2">
-        <v>0</v>
+        <v>116887</v>
       </c>
       <c r="P175" s="2">
-        <v>0</v>
+        <v>12694</v>
       </c>
       <c r="Q175" s="2">
-        <v>0</v>
+        <v>67147</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/Power Capacity.xlsx
+++ b/inst/extdata/Power Capacity.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\CREA-China\monthly snapshot\wind data templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{183CA25C-A56B-4FBA-BFB2-8DE7B3B6A1A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41103C9D-3CBD-4A64-818A-E88E5F6F10DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="14625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1860" yWindow="1860" windowWidth="19200" windowHeight="11260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Newly-added Installed Capacity " sheetId="1" r:id="rId1"/>
@@ -185,21 +185,6 @@
     <t>Update</t>
   </si>
   <si>
-    <t>2008-12:2024-04</t>
-  </si>
-  <si>
-    <t>2010-09:2024-04</t>
-  </si>
-  <si>
-    <t>2009-12:2024-04</t>
-  </si>
-  <si>
-    <t>2012-12:2024-04</t>
-  </si>
-  <si>
-    <t>2024-05-27</t>
-  </si>
-  <si>
     <t>2017-12:2024-04</t>
   </si>
   <si>
@@ -210,6 +195,21 @@
   </si>
   <si>
     <t>2024-05-30</t>
+  </si>
+  <si>
+    <t>2008-12:2024-05</t>
+  </si>
+  <si>
+    <t>2010-09:2024-05</t>
+  </si>
+  <si>
+    <t>2009-12:2024-05</t>
+  </si>
+  <si>
+    <t>2012-12:2024-05</t>
+  </si>
+  <si>
+    <t>2024-06-28</t>
   </si>
 </sst>
 </file>
@@ -610,21 +610,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q175"/>
+  <dimension ref="A1:Q176"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
+      <selection activeCell="J161" sqref="J161"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="9.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
@@ -850,52 +850,52 @@
         <v>38</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="H6" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="I6" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="N6" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="O6" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="P6" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q6" s="4" t="s">
         <v>44</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="L6" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="M6" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="N6" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="O6" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="P6" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q6" s="4" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -956,52 +956,52 @@
         <v>41</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G8" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="I8" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="J8" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="I8" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="K8" s="5" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="O8" s="5" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="P8" s="5" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="Q8" s="5" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -9853,6 +9853,59 @@
       </c>
       <c r="Q175" s="2">
         <v>67147</v>
+      </c>
+    </row>
+    <row r="176" spans="1:17">
+      <c r="A176" s="3">
+        <v>45443</v>
+      </c>
+      <c r="B176" s="2">
+        <v>344</v>
+      </c>
+      <c r="C176" s="2">
+        <v>1210</v>
+      </c>
+      <c r="D176" s="2">
+        <v>119</v>
+      </c>
+      <c r="E176" s="2">
+        <v>1976</v>
+      </c>
+      <c r="F176" s="2">
+        <v>7915</v>
+      </c>
+      <c r="G176" s="2">
+        <v>0</v>
+      </c>
+      <c r="H176" s="2">
+        <v>0</v>
+      </c>
+      <c r="I176" s="2">
+        <v>303733</v>
+      </c>
+      <c r="J176" s="2">
+        <v>42604</v>
+      </c>
+      <c r="K176" s="2">
+        <v>140113</v>
+      </c>
+      <c r="L176" s="2">
+        <v>5808</v>
+      </c>
+      <c r="M176" s="2">
+        <v>46104</v>
+      </c>
+      <c r="N176" s="2">
+        <v>0</v>
+      </c>
+      <c r="O176" s="2">
+        <v>0</v>
+      </c>
+      <c r="P176" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q176" s="2">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/Power Capacity.xlsx
+++ b/inst/extdata/Power Capacity.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\CREA-China\monthly snapshot\wind data templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41103C9D-3CBD-4A64-818A-E88E5F6F10DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D7AEECD-3563-41DB-8667-E654B27EE4CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="1860" windowWidth="19200" windowHeight="11260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="14400" windowHeight="10335" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Newly-added Installed Capacity " sheetId="1" r:id="rId1"/>
@@ -185,18 +185,6 @@
     <t>Update</t>
   </si>
   <si>
-    <t>2017-12:2024-04</t>
-  </si>
-  <si>
-    <t>2020-06:2024-04</t>
-  </si>
-  <si>
-    <t>2018-02:2024-04</t>
-  </si>
-  <si>
-    <t>2024-05-30</t>
-  </si>
-  <si>
     <t>2008-12:2024-05</t>
   </si>
   <si>
@@ -210,6 +198,18 @@
   </si>
   <si>
     <t>2024-06-28</t>
+  </si>
+  <si>
+    <t>2017-12:2024-05</t>
+  </si>
+  <si>
+    <t>2020-06:2024-05</t>
+  </si>
+  <si>
+    <t>2018-02:2024-05</t>
+  </si>
+  <si>
+    <t>2024-07-04</t>
   </si>
 </sst>
 </file>
@@ -612,19 +612,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J161" sqref="J161"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="6" max="6" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
@@ -850,52 +850,52 @@
         <v>38</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D6" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F6" s="4" t="s">
+      <c r="H6" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="N6" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="G6" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="I6" s="4" t="s">
+      <c r="O6" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q6" s="4" t="s">
         <v>49</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="L6" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="M6" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="N6" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="O6" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="P6" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q6" s="4" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -956,52 +956,52 @@
         <v>41</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="H8" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="I8" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="N8" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="O8" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="P8" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="G8" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="I8" s="5" t="s">
+      <c r="Q8" s="5" t="s">
         <v>50</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="K8" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="L8" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="M8" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="N8" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="O8" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="P8" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q8" s="5" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -9322,7 +9322,7 @@
         <v>11871</v>
       </c>
       <c r="Q165" s="2">
-        <v>45392</v>
+        <v>45399</v>
       </c>
     </row>
     <row r="166" spans="1:17">
@@ -9875,10 +9875,10 @@
         <v>7915</v>
       </c>
       <c r="G176" s="2">
-        <v>0</v>
+        <v>537</v>
       </c>
       <c r="H176" s="2">
-        <v>0</v>
+        <v>357</v>
       </c>
       <c r="I176" s="2">
         <v>303733</v>
@@ -9896,16 +9896,16 @@
         <v>46104</v>
       </c>
       <c r="N176" s="2">
-        <v>0</v>
+        <v>37225</v>
       </c>
       <c r="O176" s="2">
-        <v>0</v>
+        <v>116848</v>
       </c>
       <c r="P176" s="2">
-        <v>0</v>
+        <v>12994</v>
       </c>
       <c r="Q176" s="2">
-        <v>0</v>
+        <v>69098</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/Power Capacity.xlsx
+++ b/inst/extdata/Power Capacity.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\CREA-China\monthly snapshot\wind data templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D7AEECD-3563-41DB-8667-E654B27EE4CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D50BA109-F0C6-4F24-93CE-D6CE4E2F2A1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="14400" windowHeight="10335" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="14625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Newly-added Installed Capacity " sheetId="1" r:id="rId1"/>
@@ -185,31 +185,31 @@
     <t>Update</t>
   </si>
   <si>
-    <t>2008-12:2024-05</t>
+    <t>2008-12:2024-06</t>
   </si>
   <si>
-    <t>2010-09:2024-05</t>
+    <t>2010-09:2024-06</t>
   </si>
   <si>
-    <t>2009-12:2024-05</t>
+    <t>2009-12:2024-06</t>
   </si>
   <si>
-    <t>2012-12:2024-05</t>
+    <t>2017-12:2024-06</t>
   </si>
   <si>
-    <t>2024-06-28</t>
+    <t>2012-12:2024-06</t>
   </si>
   <si>
-    <t>2017-12:2024-05</t>
+    <t>2020-06:2024-06</t>
   </si>
   <si>
-    <t>2020-06:2024-05</t>
+    <t>2018-02:2024-06</t>
   </si>
   <si>
-    <t>2018-02:2024-05</t>
+    <t>2024-07-22</t>
   </si>
   <si>
-    <t>2024-07-04</t>
+    <t>2024-07-31</t>
   </si>
 </sst>
 </file>
@@ -610,7 +610,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q176"/>
+  <dimension ref="A1:Q177"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J161" sqref="J161"/>
@@ -865,37 +865,37 @@
         <v>44</v>
       </c>
       <c r="G6" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="N6" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="H6" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" s="4" t="s">
+      <c r="O6" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="P6" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="K6" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="L6" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="M6" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="N6" s="4" t="s">
+      <c r="Q6" s="4" t="s">
         <v>48</v>
-      </c>
-      <c r="O6" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="P6" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q6" s="4" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -956,19 +956,19 @@
         <v>41</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>50</v>
@@ -977,19 +977,19 @@
         <v>50</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="N8" s="5" t="s">
         <v>50</v>
@@ -9375,7 +9375,7 @@
         <v>11974</v>
       </c>
       <c r="Q166" s="2">
-        <v>47067</v>
+        <v>47073</v>
       </c>
     </row>
     <row r="167" spans="1:17">
@@ -9906,6 +9906,59 @@
       </c>
       <c r="Q176" s="2">
         <v>69098</v>
+      </c>
+    </row>
+    <row r="177" spans="1:17">
+      <c r="A177" s="3">
+        <v>45473</v>
+      </c>
+      <c r="B177" s="2">
+        <v>499</v>
+      </c>
+      <c r="C177" s="2">
+        <v>1825</v>
+      </c>
+      <c r="D177" s="2">
+        <v>119</v>
+      </c>
+      <c r="E177" s="2">
+        <v>2584</v>
+      </c>
+      <c r="F177" s="2">
+        <v>10248</v>
+      </c>
+      <c r="G177" s="2">
+        <v>735</v>
+      </c>
+      <c r="H177" s="2">
+        <v>734</v>
+      </c>
+      <c r="I177" s="2">
+        <v>307061</v>
+      </c>
+      <c r="J177" s="2">
+        <v>42715</v>
+      </c>
+      <c r="K177" s="2">
+        <v>140512</v>
+      </c>
+      <c r="L177" s="2">
+        <v>5808</v>
+      </c>
+      <c r="M177" s="2">
+        <v>46671</v>
+      </c>
+      <c r="N177" s="2">
+        <v>37276</v>
+      </c>
+      <c r="O177" s="2">
+        <v>116885</v>
+      </c>
+      <c r="P177" s="2">
+        <v>13333</v>
+      </c>
+      <c r="Q177" s="2">
+        <v>71350</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/Power Capacity.xlsx
+++ b/inst/extdata/Power Capacity.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\CREA-China\monthly snapshot\wind data templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D50BA109-F0C6-4F24-93CE-D6CE4E2F2A1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B639ADBB-8611-42CE-A661-ABFBD881D91D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="14625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -185,31 +185,31 @@
     <t>Update</t>
   </si>
   <si>
-    <t>2008-12:2024-06</t>
+    <t>2008-12:2024-07</t>
   </si>
   <si>
-    <t>2010-09:2024-06</t>
+    <t>2010-09:2024-07</t>
   </si>
   <si>
-    <t>2009-12:2024-06</t>
+    <t>2009-12:2024-07</t>
   </si>
   <si>
-    <t>2017-12:2024-06</t>
+    <t>2017-12:2024-07</t>
   </si>
   <si>
-    <t>2012-12:2024-06</t>
+    <t>2012-12:2024-07</t>
   </si>
   <si>
-    <t>2020-06:2024-06</t>
+    <t>2020-06:2024-07</t>
   </si>
   <si>
-    <t>2018-02:2024-06</t>
+    <t>2018-02:2024-07</t>
   </si>
   <si>
-    <t>2024-07-22</t>
+    <t>2024-08-26</t>
   </si>
   <si>
-    <t>2024-07-31</t>
+    <t>2024-08-30</t>
   </si>
 </sst>
 </file>
@@ -610,7 +610,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q177"/>
+  <dimension ref="A1:Q178"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J161" sqref="J161"/>
@@ -9428,7 +9428,7 @@
         <v>12028</v>
       </c>
       <c r="Q167" s="2">
-        <v>49081</v>
+        <v>49088</v>
       </c>
     </row>
     <row r="168" spans="1:17">
@@ -9959,6 +9959,59 @@
       </c>
       <c r="Q177" s="2">
         <v>71350</v>
+      </c>
+    </row>
+    <row r="178" spans="1:17">
+      <c r="A178" s="3">
+        <v>45504</v>
+      </c>
+      <c r="B178" s="2">
+        <v>584</v>
+      </c>
+      <c r="C178" s="2">
+        <v>2438</v>
+      </c>
+      <c r="D178" s="2">
+        <v>119</v>
+      </c>
+      <c r="E178" s="2">
+        <v>2991</v>
+      </c>
+      <c r="F178" s="2">
+        <v>12353</v>
+      </c>
+      <c r="G178" s="2">
+        <v>1112</v>
+      </c>
+      <c r="H178" s="2">
+        <v>943</v>
+      </c>
+      <c r="I178" s="2">
+        <v>310320</v>
+      </c>
+      <c r="J178" s="2">
+        <v>42835</v>
+      </c>
+      <c r="K178" s="2">
+        <v>141061</v>
+      </c>
+      <c r="L178" s="2">
+        <v>5808</v>
+      </c>
+      <c r="M178" s="2">
+        <v>47053</v>
+      </c>
+      <c r="N178" s="2">
+        <v>37366</v>
+      </c>
+      <c r="O178" s="2">
+        <v>117202</v>
+      </c>
+      <c r="P178" s="2">
+        <v>13540</v>
+      </c>
+      <c r="Q178" s="2">
+        <v>73557</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/Power Capacity.xlsx
+++ b/inst/extdata/Power Capacity.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\CREA-China\monthly snapshot\wind data templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B639ADBB-8611-42CE-A661-ABFBD881D91D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4A950AF-0568-41B5-A4AC-72556CDCF1EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="14625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Newly-added Installed Capacity " sheetId="1" r:id="rId1"/>
@@ -185,31 +185,31 @@
     <t>Update</t>
   </si>
   <si>
-    <t>2008-12:2024-07</t>
+    <t>2008-12:2024-08</t>
   </si>
   <si>
-    <t>2010-09:2024-07</t>
+    <t>2010-09:2024-08</t>
   </si>
   <si>
-    <t>2009-12:2024-07</t>
+    <t>2009-12:2024-08</t>
   </si>
   <si>
-    <t>2017-12:2024-07</t>
+    <t>2017-12:2024-08</t>
   </si>
   <si>
-    <t>2012-12:2024-07</t>
+    <t>2012-12:2024-08</t>
   </si>
   <si>
-    <t>2020-06:2024-07</t>
+    <t>2020-06:2024-08</t>
   </si>
   <si>
-    <t>2018-02:2024-07</t>
+    <t>2018-02:2024-08</t>
   </si>
   <si>
-    <t>2024-08-26</t>
+    <t>2024-09-23</t>
   </si>
   <si>
-    <t>2024-08-30</t>
+    <t>2024-09-27</t>
   </si>
 </sst>
 </file>
@@ -610,7 +610,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q178"/>
+  <dimension ref="A1:Q179"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J161" sqref="J161"/>
@@ -9481,7 +9481,7 @@
         <v>12101</v>
       </c>
       <c r="Q168" s="2">
-        <v>50541</v>
+        <v>50548</v>
       </c>
     </row>
     <row r="169" spans="1:17">
@@ -10012,6 +10012,59 @@
       </c>
       <c r="Q178" s="2">
         <v>73557</v>
+      </c>
+    </row>
+    <row r="179" spans="1:17">
+      <c r="A179" s="3">
+        <v>45535</v>
+      </c>
+      <c r="B179" s="2">
+        <v>658</v>
+      </c>
+      <c r="C179" s="2">
+        <v>2859</v>
+      </c>
+      <c r="D179" s="2">
+        <v>119</v>
+      </c>
+      <c r="E179" s="2">
+        <v>3361</v>
+      </c>
+      <c r="F179" s="2">
+        <v>13999</v>
+      </c>
+      <c r="G179" s="2">
+        <v>1296</v>
+      </c>
+      <c r="H179" s="2">
+        <v>1095</v>
+      </c>
+      <c r="I179" s="2">
+        <v>312764</v>
+      </c>
+      <c r="J179" s="2">
+        <v>42867</v>
+      </c>
+      <c r="K179" s="2">
+        <v>141445</v>
+      </c>
+      <c r="L179" s="2">
+        <v>5808</v>
+      </c>
+      <c r="M179" s="2">
+        <v>47403</v>
+      </c>
+      <c r="N179" s="2">
+        <v>37368</v>
+      </c>
+      <c r="O179" s="2">
+        <v>117516</v>
+      </c>
+      <c r="P179" s="2">
+        <v>13585</v>
+      </c>
+      <c r="Q179" s="2">
+        <v>75235</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/Power Capacity.xlsx
+++ b/inst/extdata/Power Capacity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4A950AF-0568-41B5-A4AC-72556CDCF1EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DDC5484-9255-418C-AE3E-32D66D5CA79D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -267,10 +267,10 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -628,9 +628,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
-      <c r="A1" s="1" t="str">
+      <c r="A1" s="1">
         <f>[1]!edb()</f>
-        <v>Wind</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:17">

--- a/inst/extdata/Power Capacity.xlsx
+++ b/inst/extdata/Power Capacity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DDC5484-9255-418C-AE3E-32D66D5CA79D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6851349-B0E9-4391-A9EC-36403B277F83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -267,10 +267,10 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -628,9 +628,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
-      <c r="A1" s="1">
+      <c r="A1" s="1" t="str">
         <f>[1]!edb()</f>
-        <v>0</v>
+        <v>Wind</v>
       </c>
     </row>
     <row r="2" spans="1:17">

--- a/inst/extdata/Power Capacity.xlsx
+++ b/inst/extdata/Power Capacity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6851349-B0E9-4391-A9EC-36403B277F83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8E37E6E-1C27-4CAF-8F1C-4CCC28B577EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -267,10 +267,10 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -628,9 +628,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
-      <c r="A1" s="1" t="str">
+      <c r="A1" s="1">
         <f>[1]!edb()</f>
-        <v>Wind</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:17">

--- a/inst/extdata/Power Capacity.xlsx
+++ b/inst/extdata/Power Capacity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8E37E6E-1C27-4CAF-8F1C-4CCC28B577EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{222D35B1-0F04-4D6E-920A-8EED906DC048}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -267,10 +267,10 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -628,9 +628,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
-      <c r="A1" s="1">
+      <c r="A1" s="1" t="str">
         <f>[1]!edb()</f>
-        <v>0</v>
+        <v>Wind</v>
       </c>
     </row>
     <row r="2" spans="1:17">

--- a/inst/extdata/Power Capacity.xlsx
+++ b/inst/extdata/Power Capacity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{222D35B1-0F04-4D6E-920A-8EED906DC048}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54ED329B-EA4B-4736-ABFD-47821A986390}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -267,10 +267,10 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -628,9 +628,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
-      <c r="A1" s="1" t="str">
+      <c r="A1" s="1">
         <f>[1]!edb()</f>
-        <v>Wind</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:17">

--- a/inst/extdata/Power Capacity.xlsx
+++ b/inst/extdata/Power Capacity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54ED329B-EA4B-4736-ABFD-47821A986390}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45CBF5AF-1F1A-4F27-810A-6AA89E8F5F7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -267,10 +267,10 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -628,9 +628,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
-      <c r="A1" s="1">
+      <c r="A1" s="1" t="str">
         <f>[1]!edb()</f>
-        <v>0</v>
+        <v>Wind</v>
       </c>
     </row>
     <row r="2" spans="1:17">

--- a/inst/extdata/Power Capacity.xlsx
+++ b/inst/extdata/Power Capacity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45CBF5AF-1F1A-4F27-810A-6AA89E8F5F7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFF02E8B-3275-42A1-AE85-461AAC81282A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -267,10 +267,10 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -628,9 +628,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
-      <c r="A1" s="1" t="str">
+      <c r="A1" s="1">
         <f>[1]!edb()</f>
-        <v>Wind</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:17">

--- a/inst/extdata/Power Capacity.xlsx
+++ b/inst/extdata/Power Capacity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFF02E8B-3275-42A1-AE85-461AAC81282A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC881383-B896-4745-90FD-67ADEFBEC1B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -267,10 +267,10 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -628,9 +628,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
-      <c r="A1" s="1">
+      <c r="A1" s="1" t="str">
         <f>[1]!edb()</f>
-        <v>0</v>
+        <v>Wind</v>
       </c>
     </row>
     <row r="2" spans="1:17">

--- a/inst/extdata/Power Capacity.xlsx
+++ b/inst/extdata/Power Capacity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC881383-B896-4745-90FD-67ADEFBEC1B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25B8D0CA-66AE-45E3-8B79-5FFD434278D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -267,10 +267,10 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -628,9 +628,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
-      <c r="A1" s="1" t="str">
+      <c r="A1" s="1">
         <f>[1]!edb()</f>
-        <v>Wind</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:17">

--- a/inst/extdata/Power Capacity.xlsx
+++ b/inst/extdata/Power Capacity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25B8D0CA-66AE-45E3-8B79-5FFD434278D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B42D867A-924F-49EC-B53D-6B76342B20CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -267,10 +267,10 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -628,9 +628,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
-      <c r="A1" s="1">
+      <c r="A1" s="1" t="str">
         <f>[1]!edb()</f>
-        <v>0</v>
+        <v>Wind</v>
       </c>
     </row>
     <row r="2" spans="1:17">

--- a/inst/extdata/Power Capacity.xlsx
+++ b/inst/extdata/Power Capacity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B42D867A-924F-49EC-B53D-6B76342B20CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D80925EB-3853-46F9-8794-27F4D5621123}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -267,10 +267,10 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -628,9 +628,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
-      <c r="A1" s="1" t="str">
+      <c r="A1" s="1">
         <f>[1]!edb()</f>
-        <v>Wind</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:17">

--- a/inst/extdata/Power Capacity.xlsx
+++ b/inst/extdata/Power Capacity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D80925EB-3853-46F9-8794-27F4D5621123}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46793FAA-096E-43BE-83EC-818FF0B1E192}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -267,10 +267,10 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -628,9 +628,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
-      <c r="A1" s="1">
+      <c r="A1" s="1" t="str">
         <f>[1]!edb()</f>
-        <v>0</v>
+        <v>Wind</v>
       </c>
     </row>
     <row r="2" spans="1:17">

--- a/inst/extdata/Power Capacity.xlsx
+++ b/inst/extdata/Power Capacity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25B8D0CA-66AE-45E3-8B79-5FFD434278D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{944DEADD-B2A8-4A43-B181-A0042A390B28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -267,10 +267,10 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -628,9 +628,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
-      <c r="A1" s="1">
+      <c r="A1" s="1" t="str">
         <f>[1]!edb()</f>
-        <v>0</v>
+        <v>Wind</v>
       </c>
     </row>
     <row r="2" spans="1:17">

--- a/inst/extdata/Power Capacity.xlsx
+++ b/inst/extdata/Power Capacity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{944DEADD-B2A8-4A43-B181-A0042A390B28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56153A72-423F-446B-B11D-829E25234A66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -185,19 +185,7 @@
     <t>Update</t>
   </si>
   <si>
-    <t>2008-12:2024-08</t>
-  </si>
-  <si>
-    <t>2010-09:2024-08</t>
-  </si>
-  <si>
-    <t>2009-12:2024-08</t>
-  </si>
-  <si>
     <t>2017-12:2024-08</t>
-  </si>
-  <si>
-    <t>2012-12:2024-08</t>
   </si>
   <si>
     <t>2020-06:2024-08</t>
@@ -206,10 +194,22 @@
     <t>2018-02:2024-08</t>
   </si>
   <si>
-    <t>2024-09-23</t>
+    <t>2024-09-27</t>
   </si>
   <si>
-    <t>2024-09-27</t>
+    <t>2008-12:2024-09</t>
+  </si>
+  <si>
+    <t>2010-09:2024-09</t>
+  </si>
+  <si>
+    <t>2009-12:2024-09</t>
+  </si>
+  <si>
+    <t>2012-12:2024-09</t>
+  </si>
+  <si>
+    <t>2024-10-21</t>
   </si>
 </sst>
 </file>
@@ -610,7 +610,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q179"/>
+  <dimension ref="A1:Q180"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J161" sqref="J161"/>
@@ -850,52 +850,52 @@
         <v>38</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="H6" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="I6" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="N6" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="O6" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="P6" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q6" s="4" t="s">
         <v>44</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="L6" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="M6" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="N6" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="O6" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="P6" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q6" s="4" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -956,52 +956,52 @@
         <v>41</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G8" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="I8" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="J8" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="I8" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>49</v>
-      </c>
       <c r="K8" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="O8" s="5" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="P8" s="5" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="Q8" s="5" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -10065,6 +10065,59 @@
       </c>
       <c r="Q179" s="2">
         <v>75235</v>
+      </c>
+    </row>
+    <row r="180" spans="1:17">
+      <c r="A180" s="3">
+        <v>45565</v>
+      </c>
+      <c r="B180" s="2">
+        <v>797</v>
+      </c>
+      <c r="C180" s="2">
+        <v>3343</v>
+      </c>
+      <c r="D180" s="2">
+        <v>119</v>
+      </c>
+      <c r="E180" s="2">
+        <v>3912</v>
+      </c>
+      <c r="F180" s="2">
+        <v>16088</v>
+      </c>
+      <c r="G180" s="2">
+        <v>0</v>
+      </c>
+      <c r="H180" s="2">
+        <v>0</v>
+      </c>
+      <c r="I180" s="2">
+        <v>315976</v>
+      </c>
+      <c r="J180" s="2">
+        <v>43055</v>
+      </c>
+      <c r="K180" s="2">
+        <v>141860</v>
+      </c>
+      <c r="L180" s="2">
+        <v>5808</v>
+      </c>
+      <c r="M180" s="2">
+        <v>47955</v>
+      </c>
+      <c r="N180" s="2">
+        <v>0</v>
+      </c>
+      <c r="O180" s="2">
+        <v>0</v>
+      </c>
+      <c r="P180" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q180" s="2">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/Power Capacity.xlsx
+++ b/inst/extdata/Power Capacity.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\CREA-China\monthly snapshot\wind data templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56153A72-423F-446B-B11D-829E25234A66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91DDF6D4-14C0-4693-9D08-1BD194D3AB36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25890" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Newly-added Installed Capacity " sheetId="1" r:id="rId1"/>
@@ -612,8 +612,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q180"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J161" sqref="J161"/>
+    <sheetView tabSelected="1" topLeftCell="A162" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/inst/extdata/Power Capacity.xlsx
+++ b/inst/extdata/Power Capacity.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\CREA-China\monthly snapshot\wind data templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91DDF6D4-14C0-4693-9D08-1BD194D3AB36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71B8F5DC-388F-4F59-93C5-372F607318C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25890" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Newly-added Installed Capacity " sheetId="1" r:id="rId1"/>
@@ -185,18 +185,6 @@
     <t>Update</t>
   </si>
   <si>
-    <t>2017-12:2024-08</t>
-  </si>
-  <si>
-    <t>2020-06:2024-08</t>
-  </si>
-  <si>
-    <t>2018-02:2024-08</t>
-  </si>
-  <si>
-    <t>2024-09-27</t>
-  </si>
-  <si>
     <t>2008-12:2024-09</t>
   </si>
   <si>
@@ -210,6 +198,18 @@
   </si>
   <si>
     <t>2024-10-21</t>
+  </si>
+  <si>
+    <t>2017-12:2024-09</t>
+  </si>
+  <si>
+    <t>2020-06:2024-09</t>
+  </si>
+  <si>
+    <t>2018-02:2024-09</t>
+  </si>
+  <si>
+    <t>2024-10-28</t>
   </si>
 </sst>
 </file>
@@ -850,52 +850,52 @@
         <v>38</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D6" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F6" s="4" t="s">
+      <c r="H6" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="N6" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="G6" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="I6" s="4" t="s">
+      <c r="O6" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q6" s="4" t="s">
         <v>49</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="L6" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="M6" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="N6" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="O6" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="P6" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q6" s="4" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -956,52 +956,52 @@
         <v>41</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="H8" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="I8" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="N8" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="O8" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="P8" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="G8" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="I8" s="5" t="s">
+      <c r="Q8" s="5" t="s">
         <v>50</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="K8" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="L8" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="M8" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="N8" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="O8" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="P8" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q8" s="5" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -9534,7 +9534,7 @@
         <v>12169</v>
       </c>
       <c r="Q169" s="2">
-        <v>52108</v>
+        <v>52115</v>
       </c>
     </row>
     <row r="170" spans="1:17">
@@ -10087,10 +10087,10 @@
         <v>16088</v>
       </c>
       <c r="G180" s="2">
-        <v>0</v>
+        <v>1479</v>
       </c>
       <c r="H180" s="2">
-        <v>0</v>
+        <v>1375</v>
       </c>
       <c r="I180" s="2">
         <v>315976</v>
@@ -10108,16 +10108,16 @@
         <v>47955</v>
       </c>
       <c r="N180" s="2">
-        <v>0</v>
+        <v>37464</v>
       </c>
       <c r="O180" s="2">
-        <v>0</v>
+        <v>117703</v>
       </c>
       <c r="P180" s="2">
-        <v>0</v>
+        <v>13839</v>
       </c>
       <c r="Q180" s="2">
-        <v>0</v>
+        <v>77292</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/Power Capacity.xlsx
+++ b/inst/extdata/Power Capacity.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71B8F5DC-388F-4F59-93C5-372F607318C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FEE7763-F826-48F1-8389-9570A479D6C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="780" windowWidth="18000" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Newly-added Installed Capacity " sheetId="1" r:id="rId1"/>
@@ -612,7 +612,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q180"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A162" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>

--- a/inst/extdata/Power Capacity.xlsx
+++ b/inst/extdata/Power Capacity.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FEE7763-F826-48F1-8389-9570A479D6C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9613DEC6-88FA-46B6-88D8-B68387845D28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="780" windowWidth="18000" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Newly-added Installed Capacity " sheetId="1" r:id="rId1"/>
@@ -185,31 +185,31 @@
     <t>Update</t>
   </si>
   <si>
-    <t>2008-12:2024-09</t>
+    <t>2008-12:2024-10</t>
   </si>
   <si>
-    <t>2010-09:2024-09</t>
+    <t>2010-09:2024-10</t>
   </si>
   <si>
-    <t>2009-12:2024-09</t>
+    <t>2009-12:2024-10</t>
   </si>
   <si>
-    <t>2012-12:2024-09</t>
+    <t>2017-12:2024-10</t>
   </si>
   <si>
-    <t>2024-10-21</t>
+    <t>2012-12:2024-10</t>
   </si>
   <si>
-    <t>2017-12:2024-09</t>
+    <t>2020-06:2024-10</t>
   </si>
   <si>
-    <t>2020-06:2024-09</t>
+    <t>2018-02:2024-10</t>
   </si>
   <si>
-    <t>2018-02:2024-09</t>
+    <t>2024-11-22</t>
   </si>
   <si>
-    <t>2024-10-28</t>
+    <t>2024-11-29</t>
   </si>
 </sst>
 </file>
@@ -610,7 +610,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q180"/>
+  <dimension ref="A1:Q181"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A17" sqref="A17"/>
@@ -865,37 +865,37 @@
         <v>44</v>
       </c>
       <c r="G6" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="N6" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="H6" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" s="4" t="s">
+      <c r="O6" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="P6" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="K6" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="L6" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="M6" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="N6" s="4" t="s">
+      <c r="Q6" s="4" t="s">
         <v>48</v>
-      </c>
-      <c r="O6" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="P6" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q6" s="4" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -956,19 +956,19 @@
         <v>41</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>50</v>
@@ -977,19 +977,19 @@
         <v>50</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="N8" s="5" t="s">
         <v>50</v>
@@ -9587,7 +9587,7 @@
         <v>12281</v>
       </c>
       <c r="Q170" s="2">
-        <v>53576</v>
+        <v>53582</v>
       </c>
     </row>
     <row r="171" spans="1:17">
@@ -10118,6 +10118,59 @@
       </c>
       <c r="Q180" s="2">
         <v>77292</v>
+      </c>
+    </row>
+    <row r="181" spans="1:17">
+      <c r="A181" s="3">
+        <v>45596</v>
+      </c>
+      <c r="B181" s="2">
+        <v>887</v>
+      </c>
+      <c r="C181" s="2">
+        <v>4218</v>
+      </c>
+      <c r="D181" s="2">
+        <v>119</v>
+      </c>
+      <c r="E181" s="2">
+        <v>4580</v>
+      </c>
+      <c r="F181" s="2">
+        <v>18130</v>
+      </c>
+      <c r="G181" s="2">
+        <v>1915</v>
+      </c>
+      <c r="H181" s="2">
+        <v>1800</v>
+      </c>
+      <c r="I181" s="2">
+        <v>319427</v>
+      </c>
+      <c r="J181" s="2">
+        <v>43088</v>
+      </c>
+      <c r="K181" s="2">
+        <v>142597</v>
+      </c>
+      <c r="L181" s="2">
+        <v>5808</v>
+      </c>
+      <c r="M181" s="2">
+        <v>48617</v>
+      </c>
+      <c r="N181" s="2">
+        <v>37462</v>
+      </c>
+      <c r="O181" s="2">
+        <v>118094</v>
+      </c>
+      <c r="P181" s="2">
+        <v>14167</v>
+      </c>
+      <c r="Q181" s="2">
+        <v>79311</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/Power Capacity.xlsx
+++ b/inst/extdata/Power Capacity.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9613DEC6-88FA-46B6-88D8-B68387845D28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBD97572-AFB0-4D32-9526-96514D47A6BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2685" yWindow="2685" windowWidth="14400" windowHeight="10425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Newly-added Installed Capacity " sheetId="1" r:id="rId1"/>
@@ -613,7 +613,7 @@
   <dimension ref="A1:Q181"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/inst/extdata/Power Capacity.xlsx
+++ b/inst/extdata/Power Capacity.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBD97572-AFB0-4D32-9526-96514D47A6BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2640778-B15B-40A2-9261-90C82E09724A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2685" yWindow="2685" windowWidth="14400" windowHeight="10425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Newly-added Installed Capacity " sheetId="1" r:id="rId1"/>
@@ -185,19 +185,7 @@
     <t>Update</t>
   </si>
   <si>
-    <t>2008-12:2024-10</t>
-  </si>
-  <si>
-    <t>2010-09:2024-10</t>
-  </si>
-  <si>
-    <t>2009-12:2024-10</t>
-  </si>
-  <si>
     <t>2017-12:2024-10</t>
-  </si>
-  <si>
-    <t>2012-12:2024-10</t>
   </si>
   <si>
     <t>2020-06:2024-10</t>
@@ -206,10 +194,22 @@
     <t>2018-02:2024-10</t>
   </si>
   <si>
-    <t>2024-11-22</t>
+    <t>2024-11-29</t>
   </si>
   <si>
-    <t>2024-11-29</t>
+    <t>2008-12:2024-11</t>
+  </si>
+  <si>
+    <t>2010-09:2024-11</t>
+  </si>
+  <si>
+    <t>2009-12:2024-11</t>
+  </si>
+  <si>
+    <t>2012-12:2024-11</t>
+  </si>
+  <si>
+    <t>2024-12-20</t>
   </si>
 </sst>
 </file>
@@ -610,7 +610,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q181"/>
+  <dimension ref="A1:Q182"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="L8" sqref="L8"/>
@@ -850,52 +850,52 @@
         <v>38</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="H6" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="I6" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="N6" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="O6" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="P6" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q6" s="4" t="s">
         <v>44</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="L6" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="M6" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="N6" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="O6" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="P6" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q6" s="4" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -956,52 +956,52 @@
         <v>41</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G8" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="I8" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="J8" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="I8" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>49</v>
-      </c>
       <c r="K8" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="O8" s="5" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="P8" s="5" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="Q8" s="5" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -10171,6 +10171,59 @@
       </c>
       <c r="Q181" s="2">
         <v>79311</v>
+      </c>
+    </row>
+    <row r="182" spans="1:17">
+      <c r="A182" s="3">
+        <v>45626</v>
+      </c>
+      <c r="B182" s="2">
+        <v>998</v>
+      </c>
+      <c r="C182" s="2">
+        <v>4744</v>
+      </c>
+      <c r="D182" s="2">
+        <v>119</v>
+      </c>
+      <c r="E182" s="2">
+        <v>5175</v>
+      </c>
+      <c r="F182" s="2">
+        <v>20630</v>
+      </c>
+      <c r="G182" s="2">
+        <v>0</v>
+      </c>
+      <c r="H182" s="2">
+        <v>0</v>
+      </c>
+      <c r="I182" s="2">
+        <v>323499</v>
+      </c>
+      <c r="J182" s="2">
+        <v>43208</v>
+      </c>
+      <c r="K182" s="2">
+        <v>143426</v>
+      </c>
+      <c r="L182" s="2">
+        <v>5808</v>
+      </c>
+      <c r="M182" s="2">
+        <v>49218</v>
+      </c>
+      <c r="N182" s="2">
+        <v>0</v>
+      </c>
+      <c r="O182" s="2">
+        <v>0</v>
+      </c>
+      <c r="P182" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q182" s="2">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/Power Capacity.xlsx
+++ b/inst/extdata/Power Capacity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2640778-B15B-40A2-9261-90C82E09724A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C965A66-1682-4D1F-8F4E-AB3293B03E36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -185,18 +185,6 @@
     <t>Update</t>
   </si>
   <si>
-    <t>2017-12:2024-10</t>
-  </si>
-  <si>
-    <t>2020-06:2024-10</t>
-  </si>
-  <si>
-    <t>2018-02:2024-10</t>
-  </si>
-  <si>
-    <t>2024-11-29</t>
-  </si>
-  <si>
     <t>2008-12:2024-11</t>
   </si>
   <si>
@@ -210,6 +198,18 @@
   </si>
   <si>
     <t>2024-12-20</t>
+  </si>
+  <si>
+    <t>2017-12:2024-11</t>
+  </si>
+  <si>
+    <t>2020-06:2024-11</t>
+  </si>
+  <si>
+    <t>2018-02:2024-11</t>
+  </si>
+  <si>
+    <t>2025-01-02</t>
   </si>
 </sst>
 </file>
@@ -850,52 +850,52 @@
         <v>38</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D6" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F6" s="4" t="s">
+      <c r="H6" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="N6" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="G6" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="I6" s="4" t="s">
+      <c r="O6" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q6" s="4" t="s">
         <v>49</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="L6" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="M6" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="N6" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="O6" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="P6" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q6" s="4" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -956,52 +956,52 @@
         <v>41</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="H8" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="I8" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="N8" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="O8" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="P8" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="G8" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="I8" s="5" t="s">
+      <c r="Q8" s="5" t="s">
         <v>50</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="K8" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="L8" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="M8" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="N8" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="O8" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="P8" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q8" s="5" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -9640,7 +9640,7 @@
         <v>12283</v>
       </c>
       <c r="Q171" s="2">
-        <v>55762.160199999998</v>
+        <v>55769</v>
       </c>
     </row>
     <row r="172" spans="1:17">
@@ -10193,10 +10193,10 @@
         <v>20630</v>
       </c>
       <c r="G182" s="2">
-        <v>0</v>
+        <v>2384</v>
       </c>
       <c r="H182" s="2">
-        <v>0</v>
+        <v>1811</v>
       </c>
       <c r="I182" s="2">
         <v>323499</v>
@@ -10214,16 +10214,16 @@
         <v>49218</v>
       </c>
       <c r="N182" s="2">
-        <v>0</v>
+        <v>37516</v>
       </c>
       <c r="O182" s="2">
-        <v>0</v>
+        <v>118669</v>
       </c>
       <c r="P182" s="2">
-        <v>0</v>
+        <v>14270</v>
       </c>
       <c r="Q182" s="2">
-        <v>0</v>
+        <v>81833</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/Power Capacity.xlsx
+++ b/inst/extdata/Power Capacity.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\CREA-China\monthly snapshot\wind data templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C965A66-1682-4D1F-8F4E-AB3293B03E36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A405EC9-879E-4990-81DD-0DEA372ABBDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2295" yWindow="2295" windowWidth="14400" windowHeight="10470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Newly-added Installed Capacity " sheetId="1" r:id="rId1"/>

--- a/inst/extdata/Power Capacity.xlsx
+++ b/inst/extdata/Power Capacity.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\CREA-China\monthly snapshot\wind data templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A405EC9-879E-4990-81DD-0DEA372ABBDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16172221-B456-44A2-A1D8-49AE1A9B5AF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2295" yWindow="2295" windowWidth="14400" windowHeight="10470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Newly-added Installed Capacity " sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="52">
   <si>
     <t>Name</t>
   </si>
@@ -194,9 +194,6 @@
     <t>2009-12:2024-11</t>
   </si>
   <si>
-    <t>2012-12:2024-11</t>
-  </si>
-  <si>
     <t>2024-12-20</t>
   </si>
   <si>
@@ -210,6 +207,12 @@
   </si>
   <si>
     <t>2025-01-02</t>
+  </si>
+  <si>
+    <t>2012-12:2024-12</t>
+  </si>
+  <si>
+    <t>2025-01-22</t>
   </si>
 </sst>
 </file>
@@ -610,7 +613,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q182"/>
+  <dimension ref="A1:Q183"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="L8" sqref="L8"/>
@@ -865,37 +868,37 @@
         <v>44</v>
       </c>
       <c r="G6" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="N6" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="H6" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="L6" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="M6" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="N6" s="4" t="s">
+      <c r="O6" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q6" s="4" t="s">
         <v>48</v>
-      </c>
-      <c r="O6" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="P6" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q6" s="4" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -956,52 +959,52 @@
         <v>41</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O8" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P8" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q8" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -10224,6 +10227,59 @@
       </c>
       <c r="Q182" s="2">
         <v>81833</v>
+      </c>
+    </row>
+    <row r="183" spans="1:17">
+      <c r="A183" s="3">
+        <v>45657</v>
+      </c>
+      <c r="B183" s="2">
+        <v>0</v>
+      </c>
+      <c r="C183" s="2">
+        <v>0</v>
+      </c>
+      <c r="D183" s="2">
+        <v>0</v>
+      </c>
+      <c r="E183" s="2">
+        <v>0</v>
+      </c>
+      <c r="F183" s="2">
+        <v>0</v>
+      </c>
+      <c r="G183" s="2">
+        <v>0</v>
+      </c>
+      <c r="H183" s="2">
+        <v>0</v>
+      </c>
+      <c r="I183" s="2">
+        <v>334862</v>
+      </c>
+      <c r="J183" s="2">
+        <v>43595</v>
+      </c>
+      <c r="K183" s="2">
+        <v>144445</v>
+      </c>
+      <c r="L183" s="2">
+        <v>6083</v>
+      </c>
+      <c r="M183" s="2">
+        <v>52068</v>
+      </c>
+      <c r="N183" s="2">
+        <v>0</v>
+      </c>
+      <c r="O183" s="2">
+        <v>0</v>
+      </c>
+      <c r="P183" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q183" s="2">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/Power Capacity.xlsx
+++ b/inst/extdata/Power Capacity.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16172221-B456-44A2-A1D8-49AE1A9B5AF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EF36A2A-DEEA-4CD1-A850-CC623FA38231}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="51">
   <si>
     <t>Name</t>
   </si>
@@ -185,25 +185,7 @@
     <t>Update</t>
   </si>
   <si>
-    <t>2008-12:2024-11</t>
-  </si>
-  <si>
-    <t>2010-09:2024-11</t>
-  </si>
-  <si>
-    <t>2009-12:2024-11</t>
-  </si>
-  <si>
-    <t>2024-12-20</t>
-  </si>
-  <si>
-    <t>2017-12:2024-11</t>
-  </si>
-  <si>
     <t>2020-06:2024-11</t>
-  </si>
-  <si>
-    <t>2018-02:2024-11</t>
   </si>
   <si>
     <t>2025-01-02</t>
@@ -212,7 +194,22 @@
     <t>2012-12:2024-12</t>
   </si>
   <si>
-    <t>2025-01-22</t>
+    <t>2008-12:2024-12</t>
+  </si>
+  <si>
+    <t>2010-09:2024-12</t>
+  </si>
+  <si>
+    <t>2009-12:2024-12</t>
+  </si>
+  <si>
+    <t>2017-12:2024-12</t>
+  </si>
+  <si>
+    <t>2018-02:2024-12</t>
+  </si>
+  <si>
+    <t>2025-01-24</t>
   </si>
 </sst>
 </file>
@@ -853,52 +850,52 @@
         <v>38</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="N6" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="L6" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="M6" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="N6" s="4" t="s">
-        <v>47</v>
-      </c>
       <c r="O6" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="P6" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q6" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -959,52 +956,52 @@
         <v>41</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="O8" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P8" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q8" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -10234,52 +10231,52 @@
         <v>45657</v>
       </c>
       <c r="B183" s="2">
-        <v>0</v>
+        <v>1377.8240000000001</v>
       </c>
       <c r="C183" s="2">
-        <v>0</v>
+        <v>5771.0423000000001</v>
       </c>
       <c r="D183" s="2">
-        <v>0</v>
+        <v>393.4</v>
       </c>
       <c r="E183" s="2">
-        <v>0</v>
+        <v>7982.3869999999997</v>
       </c>
       <c r="F183" s="2">
-        <v>0</v>
+        <v>27797.939200000001</v>
       </c>
       <c r="G183" s="2">
-        <v>0</v>
+        <v>3249.24</v>
       </c>
       <c r="H183" s="2">
-        <v>0</v>
+        <v>1898.7440999999999</v>
       </c>
       <c r="I183" s="2">
-        <v>334862</v>
+        <v>334861.697262</v>
       </c>
       <c r="J183" s="2">
-        <v>43595</v>
+        <v>43594.599399999999</v>
       </c>
       <c r="K183" s="2">
-        <v>144445</v>
+        <v>144445.30110000001</v>
       </c>
       <c r="L183" s="2">
-        <v>6083</v>
+        <v>6082.5159999999996</v>
       </c>
       <c r="M183" s="2">
-        <v>52068</v>
+        <v>52068.383900000001</v>
       </c>
       <c r="N183" s="2">
         <v>0</v>
       </c>
       <c r="O183" s="2">
-        <v>0</v>
+        <v>119498.1122</v>
       </c>
       <c r="P183" s="2">
-        <v>0</v>
+        <v>14367.120999999999</v>
       </c>
       <c r="Q183" s="2">
-        <v>0</v>
+        <v>88665.524984000003</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/Power Capacity.xlsx
+++ b/inst/extdata/Power Capacity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EF36A2A-DEEA-4CD1-A850-CC623FA38231}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD936661-BBF5-4B50-9FD2-122BB5A3F8F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="52">
   <si>
     <t>Name</t>
   </si>
@@ -210,6 +210,9 @@
   </si>
   <si>
     <t>2025-01-24</t>
+  </si>
+  <si>
+    <t>2025-01-26</t>
   </si>
 </sst>
 </file>
@@ -977,7 +980,7 @@
         <v>50</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J8" s="5" t="s">
         <v>50</v>
